--- a/bases/INEGI/SCN/Cuentas/Cuenta de Generacion del Ingreso.xlsx
+++ b/bases/INEGI/SCN/Cuentas/Cuenta de Generacion del Ingreso.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIEP\Dropbox (CIEP)\BID SHCP\4.10.1 (BID-SHCP)\bases\INEGI\BIE\SCN\Cuentas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Cuentas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C33792-DAAB-404C-87B0-D47DDB9EF0FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Cuenta de Generacion del Ingres" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Cuenta_de_Generacion_del_Ingreso" localSheetId="0">'Cuenta de Generacion del Ingres'!$A$1:$M$24</definedName>
+    <definedName name="Cuenta_de_Generacion_del_Ingreso" localSheetId="0">'Cuenta de Generacion del Ingres'!$A$1:$M$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\CIEP\Dropbox (CIEP)\BID SHCP\4.10.1 (BID-SHCP)\bases\INEGI\BIE\SCN\Cuentas\Cuenta de Generacion del Ingreso.IQY" name="Cuenta de Generacion del Ingreso" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" odcFile="D:\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Cuentas\Cuenta de Generacion del Ingreso.IQY" name="Cuenta de Generacion del Ingreso" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://www.inegi.gob.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=2003&amp;aamax=9999&amp;cveser=,500341,500342,500343,500344,500345,500346,500347,500348,500349,500350,500351,500352,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -117,7 +118,7 @@
   </si>
   <si>
     <r>
-      <t>2016</t>
+      <t>2017</t>
     </r>
     <r>
       <rPr>
@@ -129,15 +130,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>r/</t>
+      <t>p/</t>
     </r>
   </si>
   <si>
-    <t>Cifras revisadas:</t>
+    <t>Cifras preliminares:</t>
   </si>
   <si>
     <r>
-      <t>r/</t>
+      <t>p/</t>
     </r>
     <r>
       <rPr>
@@ -147,7 +148,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2016</t>
+      <t xml:space="preserve"> A partir de 2017</t>
     </r>
   </si>
   <si>
@@ -166,13 +167,13 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 16/08/2018 16:08:17</t>
+    <t>Fecha de consulta: 21/11/2018 18:06:24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -725,27 +726,27 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -814,7 +815,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -873,7 +874,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -885,7 +886,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -902,9 +903,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -932,14 +933,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -967,6 +985,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1119,19 +1154,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="80.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1183,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1228,7 +1263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -1269,7 +1304,7 @@
         <v>7868809.5530000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -1310,7 +1345,7 @@
         <v>8828367.4340000004</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -1351,7 +1386,7 @@
         <v>9562648.1129999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -1392,7 +1427,7 @@
         <v>10630939.426000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -1433,7 +1468,7 @@
         <v>11504075.512</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -1474,7 +1509,7 @@
         <v>12353845.280999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -1515,7 +1550,7 @@
         <v>12162762.846000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -1556,7 +1591,7 @@
         <v>13366377.171</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -1597,7 +1632,7 @@
         <v>14665576.471999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -1638,7 +1673,7 @@
         <v>15817754.584000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -1679,7 +1714,7 @@
         <v>16277187.078</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -1720,7 +1755,7 @@
         <v>17473841.537</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -1761,82 +1796,106 @@
         <v>18551459.265999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5353379.1730000004</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4701162.875</v>
+      </c>
+      <c r="D17" s="3">
+        <v>652216.29799999995</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1419808.2490000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1298501.0330000001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>791700.24300000002</v>
+      </c>
+      <c r="H17" s="3">
+        <v>204092.82500000001</v>
+      </c>
+      <c r="I17" s="3">
+        <v>302707.96500000003</v>
+      </c>
+      <c r="J17" s="3">
+        <v>121307.216</v>
+      </c>
+      <c r="K17" s="3">
+        <v>47092.044000000002</v>
+      </c>
+      <c r="L17" s="3">
+        <v>13390593.158</v>
+      </c>
+      <c r="M17" s="8">
+        <v>20116688.535999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="10">
-        <v>5356732.9330000002</v>
-      </c>
-      <c r="C17" s="10">
-        <v>4700402.01</v>
-      </c>
-      <c r="D17" s="10">
-        <v>656330.92299999995</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1421253.3259999999</v>
-      </c>
-      <c r="F17" s="10">
-        <v>1297180.612</v>
-      </c>
-      <c r="G17" s="10">
-        <v>791700.24300000002</v>
-      </c>
-      <c r="H17" s="10">
-        <v>204092.82500000001</v>
-      </c>
-      <c r="I17" s="10">
-        <v>301387.54399999999</v>
-      </c>
-      <c r="J17" s="10">
-        <v>124072.71400000001</v>
-      </c>
-      <c r="K17" s="10">
-        <v>47092.044000000002</v>
-      </c>
-      <c r="L17" s="10">
-        <v>13384891.655999999</v>
-      </c>
-      <c r="M17" s="11">
-        <v>20115785.870999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="10">
+        <v>5717976.4589999998</v>
+      </c>
+      <c r="C18" s="10">
+        <v>4997063.7589999996</v>
+      </c>
+      <c r="D18" s="10">
+        <v>720912.7</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1423804.638</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1291447.0020000001</v>
+      </c>
+      <c r="G18" s="10">
+        <v>816048.11499999999</v>
+      </c>
+      <c r="H18" s="10">
+        <v>201941.76500000001</v>
+      </c>
+      <c r="I18" s="10">
+        <v>273457.12199999997</v>
+      </c>
+      <c r="J18" s="10">
+        <v>132357.636</v>
+      </c>
+      <c r="K18" s="10">
+        <v>81759.460999999996</v>
+      </c>
+      <c r="L18" s="10">
+        <v>14861220.259</v>
+      </c>
+      <c r="M18" s="11">
+        <v>21921241.895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1851,9 +1910,9 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1868,27 +1927,44 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="22" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A18:M18"/>
     <mergeCell ref="A19:M19"/>
     <mergeCell ref="A20:M20"/>
     <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
